--- a/Assets/Map/Stage.xlsx
+++ b/Assets/Map/Stage.xlsx
@@ -1,31 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A18\就職対策\就職作品関連\WizardTactics\Assets\Map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5E93A-A408-4985-B369-5648FBEC44A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5F185F9-1631-48D0-AA58-F3F29CA46A5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,13 +72,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +98,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -79,39 +108,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +173,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +225,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +303,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +311,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +382,674 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C02851-9003-4D47-9439-39083E28FB3F}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>